--- a/data/hotels_by_city/Dallas/Dallas_shard_548.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_548.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,327 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r485954065-Motel_6_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>55638</t>
+  </si>
+  <si>
+    <t>2048781</t>
+  </si>
+  <si>
+    <t>485954065</t>
+  </si>
+  <si>
+    <t>05/20/2017</t>
+  </si>
+  <si>
+    <t>Pretty nice</t>
+  </si>
+  <si>
+    <t>While traveling across country with 2 small dogs it is always a challenge to find a nice motel/hotel to stay in, when the weather or time is against us tenting outside. We stopped here for the evening and found this establishment a very nice place to stay! The staff was very pleasant and helpful. This location was in a good spot for any needs. Wi-fi worked very well for me. We found the rooms clean &amp; comfortable. Our room had a refrigerator, microwave (although not working during our stay of 1 night- reported to the office) and flat screen TV. I would not hesitate to stay here again and do recommend this businessMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Cleburne, responded to this reviewResponded June 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2017</t>
+  </si>
+  <si>
+    <t>While traveling across country with 2 small dogs it is always a challenge to find a nice motel/hotel to stay in, when the weather or time is against us tenting outside. We stopped here for the evening and found this establishment a very nice place to stay! The staff was very pleasant and helpful. This location was in a good spot for any needs. Wi-fi worked very well for me. We found the rooms clean &amp; comfortable. Our room had a refrigerator, microwave (although not working during our stay of 1 night- reported to the office) and flat screen TV. I would not hesitate to stay here again and do recommend this businessMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r481117133-Motel_6_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>481117133</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>A good value</t>
+  </si>
+  <si>
+    <t>The entire motel is clean and attractive, and there's some nice places to eat just down the street.  I was unimpressed by the knuckleheads who felt the need to blare deep bass rap music at the pool, but that's the risk when staying at a budget oriented motel.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>The entire motel is clean and attractive, and there's some nice places to eat just down the street.  I was unimpressed by the knuckleheads who felt the need to blare deep bass rap music at the pool, but that's the risk when staying at a budget oriented motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r479019325-Motel_6_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>479019325</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice room for the price </t>
+  </si>
+  <si>
+    <t>Stayed overnight and requested a nonsmoking room. The room was free of smoke and clean. The floors had tile on them and not dirty carpet. Clean/comfortable bed. Wasn't trilled with my pillow. Next time I will take my own...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r421893214-Motel_6_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>421893214</t>
+  </si>
+  <si>
+    <t>09/24/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surprised </t>
+  </si>
+  <si>
+    <t>Motel 6 is hit or miss all over the United states. This is one of the rare that is clean and been completely renovated.  Rooms are nice beds are soft . Front desk was very helpful and friendly.  Truck parking, dog friendly and self laundry.  Will definitely stay again if ever in the area for work .</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r385086459-Motel_6_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>385086459</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>You get what you pay for...</t>
+  </si>
+  <si>
+    <t>Rooms are updated and clean, but small, limited hanging space for clothes, the bed was very uncomfortable, walls are very thin, could hear everything said next door, bad odor in hallways... wouldn't stay there again...</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r368077185-Motel_6_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>368077185</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>Short overnight stay before bicycle race.</t>
+  </si>
+  <si>
+    <t>This motel is nice! The checkin was smooth and hassle free. When I got to the room I noticed it was very spartan in nature but very clean. The bed was firm but comfortable. Lots of floor room but minimal furniture. The tv on the wall had a clean look and inputs for a laptop hook-up and HDMI and USB inputs. Sweet! The bathroom was sparklingly clean and a cool looking shelf on the wall to hold the towels. More towels than I would have needed were supplied.Door lock worked well and easy to do.Overall a very nice stay for the money. I would recommend.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r297326536-Motel_6_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>297326536</t>
+  </si>
+  <si>
+    <t>08/09/2015</t>
+  </si>
+  <si>
+    <t>Room was not clean</t>
+  </si>
+  <si>
+    <t>The staff was friendly, however the room could of used some help. There were two beds, one bed had an imprint left behind where someone had sat. The other bed had multiple strands of hair under the sheet near the pillows, the bathroom counters were dirty as well as the table in the room. The bathroom floor was not clean smelled like urine.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Cleburne, responded to this reviewResponded August 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2015</t>
+  </si>
+  <si>
+    <t>The staff was friendly, however the room could of used some help. There were two beds, one bed had an imprint left behind where someone had sat. The other bed had multiple strands of hair under the sheet near the pillows, the bathroom counters were dirty as well as the table in the room. The bathroom floor was not clean smelled like urine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r288491939-Motel_6_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>288491939</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>Good But...</t>
+  </si>
+  <si>
+    <t>Motel 6 has all the stuff there were was good the rooms there  was nice lobby it was just the BEDS!!!!They were as hard as a boulder I would rather sleep an the side of the road i made something funny up "hi I'm tom Bo det and I'll leave the rock out for"Insted of ill leave the light out for you!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r245414555-Motel_6_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>245414555</t>
+  </si>
+  <si>
+    <t>12/21/2014</t>
+  </si>
+  <si>
+    <t>Won't stay here again</t>
+  </si>
+  <si>
+    <t>Called ahead to make sure they had truck parking as we haul campers and boats etc. for dealers and private party's. Also asked if they had laundry facilities. The answer to both questions was yes so reserved a room. I also told them we needed a ground floor smoking with microwave and frig. The only smoking rooms are on 3rd floor. Being disabled this wasn't an option unless there was and elevator which there was. We had to park a block away from the door and used one of there carts to haul everything in. It was 4 o'clock in the afternoon and one of the maids was still cleaning the rooms on ground floor. She saw me coming with the cart but didn't even bother to get her cart out of the middle of the hallway until I asked her. Don't think she understood at first until I started to move it. She didn't speak English. The hallways on all floors were dirty. Stuff all over the floors. We asked again about laundry and was told there were laundry rooms on 3rd and 2nd floor. Wow, I thought that was great so I wouldn't have to carry it far. Went to our room and as soon as I opened the door I couldn't hardly breath from the smell. It smelled like someone had either scrubbed the floor with a sour mop or there had been a cat in the...Called ahead to make sure they had truck parking as we haul campers and boats etc. for dealers and private party's. Also asked if they had laundry facilities. The answer to both questions was yes so reserved a room. I also told them we needed a ground floor smoking with microwave and frig. The only smoking rooms are on 3rd floor. Being disabled this wasn't an option unless there was and elevator which there was. We had to park a block away from the door and used one of there carts to haul everything in. It was 4 o'clock in the afternoon and one of the maids was still cleaning the rooms on ground floor. She saw me coming with the cart but didn't even bother to get her cart out of the middle of the hallway until I asked her. Don't think she understood at first until I started to move it. She didn't speak English. The hallways on all floors were dirty. Stuff all over the floors. We asked again about laundry and was told there were laundry rooms on 3rd and 2nd floor. Wow, I thought that was great so I wouldn't have to carry it far. Went to our room and as soon as I opened the door I couldn't hardly breath from the smell. It smelled like someone had either scrubbed the floor with a sour mop or there had been a cat in the room. Tried to call front desk but phone didn't work so had to go back downstairs to front desk. When I told the lady the room smelled really bad her response was it's a smoking room. I said it's not from smoke and explained to her what I thought it smelled like. She put us in another room and this one was much closer to the laundry room. Great huh? NO. Went to do laundry and was told it was a $1 to wash and $1 to dry. No problem. Put clothes in washer and started it only to find out the dryer didn't work. Went to 2nd floor to see if there's worked and put my other load in washer as it appeared the dryer worked. Pushed the slot in and nothing happened. Looking around someone had taken the OUT OF ORDER sign off of the washer. The other washer which clearly said $1 was actually $1.25. Unfortunately I only took $1. Had to go back to front desk and tell her I lost $1 in the washer on 2nd floor. She did give me my $1 back and said the other washer was new and it took $1.25. I told her they needed to change the sign then. By this time I was exhausted. The room was clean but very small. Bathroom was almost bigger than the room. Phone in this room didn't work either. We won't stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Called ahead to make sure they had truck parking as we haul campers and boats etc. for dealers and private party's. Also asked if they had laundry facilities. The answer to both questions was yes so reserved a room. I also told them we needed a ground floor smoking with microwave and frig. The only smoking rooms are on 3rd floor. Being disabled this wasn't an option unless there was and elevator which there was. We had to park a block away from the door and used one of there carts to haul everything in. It was 4 o'clock in the afternoon and one of the maids was still cleaning the rooms on ground floor. She saw me coming with the cart but didn't even bother to get her cart out of the middle of the hallway until I asked her. Don't think she understood at first until I started to move it. She didn't speak English. The hallways on all floors were dirty. Stuff all over the floors. We asked again about laundry and was told there were laundry rooms on 3rd and 2nd floor. Wow, I thought that was great so I wouldn't have to carry it far. Went to our room and as soon as I opened the door I couldn't hardly breath from the smell. It smelled like someone had either scrubbed the floor with a sour mop or there had been a cat in the...Called ahead to make sure they had truck parking as we haul campers and boats etc. for dealers and private party's. Also asked if they had laundry facilities. The answer to both questions was yes so reserved a room. I also told them we needed a ground floor smoking with microwave and frig. The only smoking rooms are on 3rd floor. Being disabled this wasn't an option unless there was and elevator which there was. We had to park a block away from the door and used one of there carts to haul everything in. It was 4 o'clock in the afternoon and one of the maids was still cleaning the rooms on ground floor. She saw me coming with the cart but didn't even bother to get her cart out of the middle of the hallway until I asked her. Don't think she understood at first until I started to move it. She didn't speak English. The hallways on all floors were dirty. Stuff all over the floors. We asked again about laundry and was told there were laundry rooms on 3rd and 2nd floor. Wow, I thought that was great so I wouldn't have to carry it far. Went to our room and as soon as I opened the door I couldn't hardly breath from the smell. It smelled like someone had either scrubbed the floor with a sour mop or there had been a cat in the room. Tried to call front desk but phone didn't work so had to go back downstairs to front desk. When I told the lady the room smelled really bad her response was it's a smoking room. I said it's not from smoke and explained to her what I thought it smelled like. She put us in another room and this one was much closer to the laundry room. Great huh? NO. Went to do laundry and was told it was a $1 to wash and $1 to dry. No problem. Put clothes in washer and started it only to find out the dryer didn't work. Went to 2nd floor to see if there's worked and put my other load in washer as it appeared the dryer worked. Pushed the slot in and nothing happened. Looking around someone had taken the OUT OF ORDER sign off of the washer. The other washer which clearly said $1 was actually $1.25. Unfortunately I only took $1. Had to go back to front desk and tell her I lost $1 in the washer on 2nd floor. She did give me my $1 back and said the other washer was new and it took $1.25. I told her they needed to change the sign then. By this time I was exhausted. The room was clean but very small. Bathroom was almost bigger than the room. Phone in this room didn't work either. We won't stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r172740532-Motel_6_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>172740532</t>
+  </si>
+  <si>
+    <t>08/17/2013</t>
+  </si>
+  <si>
+    <t>Excellent value and extremely clean!!!</t>
+  </si>
+  <si>
+    <t>We stay for 3 days with young daughter. The room was very clean, which was my #1 concern. The beds were comfortable, the design of the rooms were modern and cool, but also extremely functional and well thought out. The flat screen tv was also nice, and had a great selection. Also, free reliable wifi. They also have a laundry machine was was only 2.50 for a full load, super convenient for a trip with small kids. Finally the pool area was clean, well kept, and a good size. Also, the area was safe. We were blown away by the value. Spent more than double one night in another hotel and received half the value! Can't wait to return!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>We stay for 3 days with young daughter. The room was very clean, which was my #1 concern. The beds were comfortable, the design of the rooms were modern and cool, but also extremely functional and well thought out. The flat screen tv was also nice, and had a great selection. Also, free reliable wifi. They also have a laundry machine was was only 2.50 for a full load, super convenient for a trip with small kids. Finally the pool area was clean, well kept, and a good size. Also, the area was safe. We were blown away by the value. Spent more than double one night in another hotel and received half the value! Can't wait to return!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r161057397-Motel_6_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>161057397</t>
+  </si>
+  <si>
+    <t>05/18/2013</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>This hotel fell short of my expectations - but then I hadn't really stayed in a motel before.  The hotel is quite new so the rooms were quite nice and clean.  But they had hard laminate floors, were very echoey and lacked facilities; including a closed-in wardrobe and coffee maker.  This is no Holiday Inn Express or Hilton Garden Inn.It is cheap, however, so I guess you get what you pay for.The lady on the desk was helpful however so 5*'s to her.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r159159669-Motel_6_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>159159669</t>
+  </si>
+  <si>
+    <t>04/29/2013</t>
+  </si>
+  <si>
+    <t>Great concept, but fell a little short.</t>
+  </si>
+  <si>
+    <t>I love the new concept Motel 6 and the incredible rate.  Could have been excellent except for two factors: The bed was uncomfortably hard.  I guess this is a function of the platform bed approach.I'm OK with the "no coffee maker" in the room, but, my Lord, the lobby coffee is undrinkable.Thanks to M6 for taking a radical approach to room design.  For a night or 2, having everying out in the open is great and efficient.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r149223370-Motel_6_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>149223370</t>
+  </si>
+  <si>
+    <t>01/08/2013</t>
+  </si>
+  <si>
+    <t>Motel 6 great new concept!</t>
+  </si>
+  <si>
+    <t>Really love the new concept Motel 6 has done. I don't usually stay with Motel 6 because of old, run down properties. If all of them would get with this new design. Would be great stays. We had a queen bed room, lil smaller room, but was great for a night. Had a frig, flat screen and a lil table with 2 chairs. Microwave is available to use by the vending machines. Bathroom was good loved the new sink :) elevators for the ones on 2nd and 3rd floors. Interior corridors. Pillows on bed, well not all that. For the value, we had a great stay. Housekeeping staff need to keep up with the lil things, or this accommodation will go down hill. Thank you Motel 6 for this new Hotel :) probably will come back if in this area again! They will leave the light on for ya!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Really love the new concept Motel 6 has done. I don't usually stay with Motel 6 because of old, run down properties. If all of them would get with this new design. Would be great stays. We had a queen bed room, lil smaller room, but was great for a night. Had a frig, flat screen and a lil table with 2 chairs. Microwave is available to use by the vending machines. Bathroom was good loved the new sink :) elevators for the ones on 2nd and 3rd floors. Interior corridors. Pillows on bed, well not all that. For the value, we had a great stay. Housekeeping staff need to keep up with the lil things, or this accommodation will go down hill. Thank you Motel 6 for this new Hotel :) probably will come back if in this area again! They will leave the light on for ya!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r137894081-Motel_6_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>137894081</t>
+  </si>
+  <si>
+    <t>08/21/2012</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>My family and I were just passing by Cleburn and decided to stop in this wonderful motel 6. The contemporary rooms were amazing and the motel was so clean. The value was wonderful and the staff was very helpful and friendly. We will definately be back!</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r137761880-Motel_6_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>137761880</t>
+  </si>
+  <si>
+    <t>08/20/2012</t>
+  </si>
+  <si>
+    <t>Very pleasant surprise!</t>
+  </si>
+  <si>
+    <t>I was looking for a inexpensive place to stay for the Goatneck bike ride in Cleburne and landed on Motel 6.  I got there and was very impressed and felt like I received an excellent deal.  This motel is one of the nicest economical motels that I have ever stayed in.  It is pretty new and the layout of the room was excellent.  I also liked the vinyl plank floor.  This is a much better solution than carpet.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r125087263-Motel_6_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>125087263</t>
+  </si>
+  <si>
+    <t>02/23/2012</t>
+  </si>
+  <si>
+    <t>Great Stay &amp; Affordable</t>
+  </si>
+  <si>
+    <t>My wife and I were traveling to Stephenville, and made a stop in Cleburne. We stayed at the Motel 6 there and were quite surprised. This was a newly built Motel 6, so the rooms were better than most of the other types of motels we're used to seeing. The staff was friendly. The rooms were very clean and they had the most affordable price in the area. Love the new look of the hotel, and they even let us extend our check out complimentary.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
   </si>
 </sst>
 </file>
@@ -645,6 +966,1012 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60587</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60587</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60587</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60587</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60587</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60587</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60587</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>95</v>
+      </c>
+      <c r="X8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60587</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60587</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>60587</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>60587</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60587</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60587</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60587</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60587</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>60587</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_548.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_548.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>AZboyinWI</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>While traveling across country with 2 small dogs it is always a challenge to find a nice motel/hotel to stay in, when the weather or time is against us tenting outside. We stopped here for the evening and found this establishment a very nice place to stay! The staff was very pleasant and helpful. This location was in a good spot for any needs. Wi-fi worked very well for me. We found the rooms clean &amp; comfortable. Our room had a refrigerator, microwave (although not working during our stay of 1 night- reported to the office) and flat screen TV. I would not hesitate to stay here again and do recommend this businessMore</t>
   </si>
   <si>
+    <t>Paul A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r481117133-Motel_6_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>The entire motel is clean and attractive, and there's some nice places to eat just down the street.  I was unimpressed by the knuckleheads who felt the need to blare deep bass rap music at the pool, but that's the risk when staying at a budget oriented motel.More</t>
   </si>
   <si>
+    <t>Just4Ann</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r479019325-Motel_6_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Christine  B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r421893214-Motel_6_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Anita S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r385086459-Motel_6_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Russell B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r368077185-Motel_6_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -285,6 +303,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Debbie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r297326536-Motel_6_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -312,6 +333,9 @@
     <t>The staff was friendly, however the room could of used some help. There were two beds, one bed had an imprint left behind where someone had sat. The other bed had multiple strands of hair under the sheet near the pillows, the bathroom counters were dirty as well as the table in the room. The bathroom floor was not clean smelled like urine.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r288491939-Motel_6_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -327,6 +351,9 @@
     <t>Motel 6 has all the stuff there were was good the rooms there  was nice lobby it was just the BEDS!!!!They were as hard as a boulder I would rather sleep an the side of the road i made something funny up "hi I'm tom Bo det and I'll leave the rock out for"Insted of ill leave the light out for you!</t>
   </si>
   <si>
+    <t>lynnd1949</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r245414555-Motel_6_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -348,6 +375,9 @@
     <t>Called ahead to make sure they had truck parking as we haul campers and boats etc. for dealers and private party's. Also asked if they had laundry facilities. The answer to both questions was yes so reserved a room. I also told them we needed a ground floor smoking with microwave and frig. The only smoking rooms are on 3rd floor. Being disabled this wasn't an option unless there was and elevator which there was. We had to park a block away from the door and used one of there carts to haul everything in. It was 4 o'clock in the afternoon and one of the maids was still cleaning the rooms on ground floor. She saw me coming with the cart but didn't even bother to get her cart out of the middle of the hallway until I asked her. Don't think she understood at first until I started to move it. She didn't speak English. The hallways on all floors were dirty. Stuff all over the floors. We asked again about laundry and was told there were laundry rooms on 3rd and 2nd floor. Wow, I thought that was great so I wouldn't have to carry it far. Went to our room and as soon as I opened the door I couldn't hardly breath from the smell. It smelled like someone had either scrubbed the floor with a sour mop or there had been a cat in the...Called ahead to make sure they had truck parking as we haul campers and boats etc. for dealers and private party's. Also asked if they had laundry facilities. The answer to both questions was yes so reserved a room. I also told them we needed a ground floor smoking with microwave and frig. The only smoking rooms are on 3rd floor. Being disabled this wasn't an option unless there was and elevator which there was. We had to park a block away from the door and used one of there carts to haul everything in. It was 4 o'clock in the afternoon and one of the maids was still cleaning the rooms on ground floor. She saw me coming with the cart but didn't even bother to get her cart out of the middle of the hallway until I asked her. Don't think she understood at first until I started to move it. She didn't speak English. The hallways on all floors were dirty. Stuff all over the floors. We asked again about laundry and was told there were laundry rooms on 3rd and 2nd floor. Wow, I thought that was great so I wouldn't have to carry it far. Went to our room and as soon as I opened the door I couldn't hardly breath from the smell. It smelled like someone had either scrubbed the floor with a sour mop or there had been a cat in the room. Tried to call front desk but phone didn't work so had to go back downstairs to front desk. When I told the lady the room smelled really bad her response was it's a smoking room. I said it's not from smoke and explained to her what I thought it smelled like. She put us in another room and this one was much closer to the laundry room. Great huh? NO. Went to do laundry and was told it was a $1 to wash and $1 to dry. No problem. Put clothes in washer and started it only to find out the dryer didn't work. Went to 2nd floor to see if there's worked and put my other load in washer as it appeared the dryer worked. Pushed the slot in and nothing happened. Looking around someone had taken the OUT OF ORDER sign off of the washer. The other washer which clearly said $1 was actually $1.25. Unfortunately I only took $1. Had to go back to front desk and tell her I lost $1 in the washer on 2nd floor. She did give me my $1 back and said the other washer was new and it took $1.25. I told her they needed to change the sign then. By this time I was exhausted. The room was clean but very small. Bathroom was almost bigger than the room. Phone in this room didn't work either. We won't stay here again.More</t>
   </si>
   <si>
+    <t>Nolamia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r172740532-Motel_6_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -366,6 +396,9 @@
     <t>We stay for 3 days with young daughter. The room was very clean, which was my #1 concern. The beds were comfortable, the design of the rooms were modern and cool, but also extremely functional and well thought out. The flat screen tv was also nice, and had a great selection. Also, free reliable wifi. They also have a laundry machine was was only 2.50 for a full load, super convenient for a trip with small kids. Finally the pool area was clean, well kept, and a good size. Also, the area was safe. We were blown away by the value. Spent more than double one night in another hotel and received half the value! Can't wait to return!!! More</t>
   </si>
   <si>
+    <t>Achronite</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r161057397-Motel_6_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -384,6 +417,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>James M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r159159669-Motel_6_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -399,6 +435,9 @@
     <t>I love the new concept Motel 6 and the incredible rate.  Could have been excellent except for two factors: The bed was uncomfortably hard.  I guess this is a function of the platform bed approach.I'm OK with the "no coffee maker" in the room, but, my Lord, the lobby coffee is undrinkable.Thanks to M6 for taking a radical approach to room design.  For a night or 2, having everying out in the open is great and efficient.</t>
   </si>
   <si>
+    <t>bkapink</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r149223370-Motel_6_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -417,6 +456,9 @@
     <t>Really love the new concept Motel 6 has done. I don't usually stay with Motel 6 because of old, run down properties. If all of them would get with this new design. Would be great stays. We had a queen bed room, lil smaller room, but was great for a night. Had a frig, flat screen and a lil table with 2 chairs. Microwave is available to use by the vending machines. Bathroom was good loved the new sink :) elevators for the ones on 2nd and 3rd floors. Interior corridors. Pillows on bed, well not all that. For the value, we had a great stay. Housekeeping staff need to keep up with the lil things, or this accommodation will go down hill. Thank you Motel 6 for this new Hotel :) probably will come back if in this area again! They will leave the light on for ya!!More</t>
   </si>
   <si>
+    <t>Brian C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r137894081-Motel_6_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -435,6 +477,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Ken321</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r137761880-Motel_6_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -448,6 +493,9 @@
   </si>
   <si>
     <t>I was looking for a inexpensive place to stay for the Goatneck bike ride in Cleburne and landed on Motel 6.  I got there and was very impressed and felt like I received an excellent deal.  This motel is one of the nicest economical motels that I have ever stayed in.  It is pretty new and the layout of the room was excellent.  I also liked the vinyl plank floor.  This is a much better solution than carpet.</t>
+  </si>
+  <si>
+    <t>Steve H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r125087263-Motel_6_Cleburne-Cleburne_Texas.html</t>
@@ -970,43 +1018,47 @@
       <c r="A2" t="n">
         <v>60587</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169224</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -1024,56 +1076,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>60587</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>21720</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1085,56 +1141,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>60587</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169225</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1148,50 +1208,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>60587</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>113898</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1205,50 +1269,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>60587</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>40297</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1262,50 +1330,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>60587</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>39230</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" t="s">
         <v>87</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>88</v>
-      </c>
-      <c r="O7" t="s">
-        <v>82</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1325,50 +1397,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>60587</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>32265</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1386,47 +1462,51 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="X8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>60587</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
@@ -1445,50 +1525,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>60587</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>169226</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1508,41 +1592,45 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>60587</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>169227</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
@@ -1571,50 +1659,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>60587</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>169228</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="O12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -1638,50 +1730,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>60587</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>408</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -1705,41 +1801,45 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>60587</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>169229</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
@@ -1768,50 +1868,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>60587</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>7535</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -1835,50 +1939,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>60587</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>169230</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O16" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -1902,50 +2010,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>60587</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="K17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -1969,7 +2081,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_548.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_548.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,63 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>AZboyinWI</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/25/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r498298023-Motel_6_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>55638</t>
+  </si>
+  <si>
+    <t>2048781</t>
+  </si>
+  <si>
+    <t>498298023</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>CLEAN, Comfortable and Well-Kept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was everything I was looking for. The staff was courteous. The room was clean and comfortable, and the price was right. There were no problems from beginning to end. Perfect Motel 6 experience. I love that they have hard flours instead of carpet; so much easier to keep clean. </t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r491326326-Motel_6_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>491326326</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>Cleaning service sucks</t>
+  </si>
+  <si>
+    <t>This hotels cleaning service sucks! Walked in a supposedly "clean" room and you could tell it was clearly not cleaned. The bed sheets had not been changed the bathroom was not cleaned and had no clean towels. Informed the front desk, and switched rooms, the second room was just as bad...you can clearly see that the maids rush through the room and do not clean thouroughly. The floors were still dirty and the counters had not been cleaned down. MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Cleburne, responded to this reviewResponded June 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2017</t>
+  </si>
+  <si>
+    <t>This hotels cleaning service sucks! Walked in a supposedly "clean" room and you could tell it was clearly not cleaned. The bed sheets had not been changed the bathroom was not cleaned and had no clean towels. Informed the front desk, and switched rooms, the second room was just as bad...you can clearly see that the maids rush through the room and do not clean thouroughly. The floors were still dirty and the counters had not been cleaned down. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r485954065-Motel_6_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
-    <t>55638</t>
-  </si>
-  <si>
-    <t>2048781</t>
-  </si>
-  <si>
     <t>485954065</t>
   </si>
   <si>
@@ -180,18 +222,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>6Team, Brand Experience Team at Motel 6 Cleburne, responded to this reviewResponded June 8, 2017</t>
-  </si>
-  <si>
-    <t>Responded June 8, 2017</t>
-  </si>
-  <si>
     <t>While traveling across country with 2 small dogs it is always a challenge to find a nice motel/hotel to stay in, when the weather or time is against us tenting outside. We stopped here for the evening and found this establishment a very nice place to stay! The staff was very pleasant and helpful. This location was in a good spot for any needs. Wi-fi worked very well for me. We found the rooms clean &amp; comfortable. Our room had a refrigerator, microwave (although not working during our stay of 1 night- reported to the office) and flat screen TV. I would not hesitate to stay here again and do recommend this businessMore</t>
   </si>
   <si>
-    <t>Paul A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r481117133-Motel_6_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -213,9 +246,6 @@
     <t>The entire motel is clean and attractive, and there's some nice places to eat just down the street.  I was unimpressed by the knuckleheads who felt the need to blare deep bass rap music at the pool, but that's the risk when staying at a budget oriented motel.More</t>
   </si>
   <si>
-    <t>Just4Ann</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r479019325-Motel_6_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -231,10 +261,46 @@
     <t>Stayed overnight and requested a nonsmoking room. The room was free of smoke and clean. The floors had tile on them and not dirty carpet. Clean/comfortable bed. Wasn't trilled with my pillow. Next time I will take my own...</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Christine  B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r456450562-Motel_6_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>456450562</t>
+  </si>
+  <si>
+    <t>02/01/2017</t>
+  </si>
+  <si>
+    <t>Yikes!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel because I wanted something inexpensive and close to the place I had to be early the next morning. I checked in late and was gone early. This is one of the most uncomfortable places I have ever stayed. I actually felt like I was in a dormitory the room was so uninviting. So much noise I had to put in ear plugs. No place to hang your cloths, the TV was terrible, so small and far from the bed. There was a table right under it with room for two but you had to pull your chair back to view it. The bed was just a bed, not comfortable at all. I could go on and on but I won't. Just suffice it to say, I will never stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel because I wanted something inexpensive and close to the place I had to be early the next morning. I checked in late and was gone early. This is one of the most uncomfortable places I have ever stayed. I actually felt like I was in a dormitory the room was so uninviting. So much noise I had to put in ear plugs. No place to hang your cloths, the TV was terrible, so small and far from the bed. There was a table right under it with room for two but you had to pull your chair back to view it. The bed was just a bed, not comfortable at all. I could go on and on but I won't. Just suffice it to say, I will never stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r444130192-Motel_6_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>444130192</t>
+  </si>
+  <si>
+    <t>12/13/2016</t>
+  </si>
+  <si>
+    <t>Clean New Hotel</t>
+  </si>
+  <si>
+    <t>The hotel staff was friendly. The room was nice and the whole hotel new. There was nothing particularly fancy about it, more like an upscale hostel, but the rates were low and the stay quite. I would definitely stay there again in the future.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r421893214-Motel_6_Cleburne-Cleburne_Texas.html</t>
@@ -258,9 +324,6 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>Anita S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r385086459-Motel_6_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -279,12 +342,6 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>Russell B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r368077185-Motel_6_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -303,7 +360,40 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t>Debbie H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r319673876-Motel_6_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>319673876</t>
+  </si>
+  <si>
+    <t>10/17/2015</t>
+  </si>
+  <si>
+    <t>Family trip</t>
+  </si>
+  <si>
+    <t>Great stay for the money. If you're in a budget for vacation this is a good choice. Stayed here to not be so close into Dallas to visit the State Fair. Nice room. Did hear a few people in the night making their way in but not loud enough to bother us. We will stay again.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r315911925-Motel_6_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>315911925</t>
+  </si>
+  <si>
+    <t>10/03/2015</t>
+  </si>
+  <si>
+    <t>Great choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were having some remodeling done in our home &amp; just needed someplace to stay for 3 nights. I was very pleased! The room was spotless upon arrival. Towels &amp; bedding very clean. Staff was very nice &amp; professional. My only complaint was walls were thin. Heard neighbors cell phone vibrate &amp; when they said "hello" I heard caller talking. But for the price it was very nice. </t>
+  </si>
+  <si>
+    <t>September 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r297326536-Motel_6_Cleburne-Cleburne_Texas.html</t>
@@ -333,9 +423,6 @@
     <t>The staff was friendly, however the room could of used some help. There were two beds, one bed had an imprint left behind where someone had sat. The other bed had multiple strands of hair under the sheet near the pillows, the bathroom counters were dirty as well as the table in the room. The bathroom floor was not clean smelled like urine.More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r288491939-Motel_6_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -351,9 +438,6 @@
     <t>Motel 6 has all the stuff there were was good the rooms there  was nice lobby it was just the BEDS!!!!They were as hard as a boulder I would rather sleep an the side of the road i made something funny up "hi I'm tom Bo det and I'll leave the rock out for"Insted of ill leave the light out for you!</t>
   </si>
   <si>
-    <t>lynnd1949</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r245414555-Motel_6_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -375,7 +459,40 @@
     <t>Called ahead to make sure they had truck parking as we haul campers and boats etc. for dealers and private party's. Also asked if they had laundry facilities. The answer to both questions was yes so reserved a room. I also told them we needed a ground floor smoking with microwave and frig. The only smoking rooms are on 3rd floor. Being disabled this wasn't an option unless there was and elevator which there was. We had to park a block away from the door and used one of there carts to haul everything in. It was 4 o'clock in the afternoon and one of the maids was still cleaning the rooms on ground floor. She saw me coming with the cart but didn't even bother to get her cart out of the middle of the hallway until I asked her. Don't think she understood at first until I started to move it. She didn't speak English. The hallways on all floors were dirty. Stuff all over the floors. We asked again about laundry and was told there were laundry rooms on 3rd and 2nd floor. Wow, I thought that was great so I wouldn't have to carry it far. Went to our room and as soon as I opened the door I couldn't hardly breath from the smell. It smelled like someone had either scrubbed the floor with a sour mop or there had been a cat in the...Called ahead to make sure they had truck parking as we haul campers and boats etc. for dealers and private party's. Also asked if they had laundry facilities. The answer to both questions was yes so reserved a room. I also told them we needed a ground floor smoking with microwave and frig. The only smoking rooms are on 3rd floor. Being disabled this wasn't an option unless there was and elevator which there was. We had to park a block away from the door and used one of there carts to haul everything in. It was 4 o'clock in the afternoon and one of the maids was still cleaning the rooms on ground floor. She saw me coming with the cart but didn't even bother to get her cart out of the middle of the hallway until I asked her. Don't think she understood at first until I started to move it. She didn't speak English. The hallways on all floors were dirty. Stuff all over the floors. We asked again about laundry and was told there were laundry rooms on 3rd and 2nd floor. Wow, I thought that was great so I wouldn't have to carry it far. Went to our room and as soon as I opened the door I couldn't hardly breath from the smell. It smelled like someone had either scrubbed the floor with a sour mop or there had been a cat in the room. Tried to call front desk but phone didn't work so had to go back downstairs to front desk. When I told the lady the room smelled really bad her response was it's a smoking room. I said it's not from smoke and explained to her what I thought it smelled like. She put us in another room and this one was much closer to the laundry room. Great huh? NO. Went to do laundry and was told it was a $1 to wash and $1 to dry. No problem. Put clothes in washer and started it only to find out the dryer didn't work. Went to 2nd floor to see if there's worked and put my other load in washer as it appeared the dryer worked. Pushed the slot in and nothing happened. Looking around someone had taken the OUT OF ORDER sign off of the washer. The other washer which clearly said $1 was actually $1.25. Unfortunately I only took $1. Had to go back to front desk and tell her I lost $1 in the washer on 2nd floor. She did give me my $1 back and said the other washer was new and it took $1.25. I told her they needed to change the sign then. By this time I was exhausted. The room was clean but very small. Bathroom was almost bigger than the room. Phone in this room didn't work either. We won't stay here again.More</t>
   </si>
   <si>
-    <t>Nolamia</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r237849488-Motel_6_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>237849488</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>Clean, no frills hotel</t>
+  </si>
+  <si>
+    <t>Very clean, basic room. Quiet. Traveling with 2 dogs. Area in back to take dogs. No iron or hairdryer in room. If you are looking for a inexpensive , clean room with no extras, this is a great place to stay. We will stay here again when in Cleburne . People at front desk were awesome!</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r224372547-Motel_6_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>224372547</t>
+  </si>
+  <si>
+    <t>08/25/2014</t>
+  </si>
+  <si>
+    <t>Clean and well kepted</t>
+  </si>
+  <si>
+    <t>Motel was clean. Did not have any problems with staff and very friendly.  Was comfortable and affordable.  Cleanliness was exceptional ..... it was very quiet and private .. heard no noise from adjoining rooms .Ac/Heater worked fine.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r172740532-Motel_6_Cleburne-Cleburne_Texas.html</t>
@@ -396,9 +513,6 @@
     <t>We stay for 3 days with young daughter. The room was very clean, which was my #1 concern. The beds were comfortable, the design of the rooms were modern and cool, but also extremely functional and well thought out. The flat screen tv was also nice, and had a great selection. Also, free reliable wifi. They also have a laundry machine was was only 2.50 for a full load, super convenient for a trip with small kids. Finally the pool area was clean, well kept, and a good size. Also, the area was safe. We were blown away by the value. Spent more than double one night in another hotel and received half the value! Can't wait to return!!! More</t>
   </si>
   <si>
-    <t>Achronite</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r161057397-Motel_6_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -417,9 +531,6 @@
     <t>April 2013</t>
   </si>
   <si>
-    <t>James M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r159159669-Motel_6_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -435,7 +546,37 @@
     <t>I love the new concept Motel 6 and the incredible rate.  Could have been excellent except for two factors: The bed was uncomfortably hard.  I guess this is a function of the platform bed approach.I'm OK with the "no coffee maker" in the room, but, my Lord, the lobby coffee is undrinkable.Thanks to M6 for taking a radical approach to room design.  For a night or 2, having everying out in the open is great and efficient.</t>
   </si>
   <si>
-    <t>bkapink</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r156532188-Motel_6_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>156532188</t>
+  </si>
+  <si>
+    <t>04/03/2013</t>
+  </si>
+  <si>
+    <t>Could not be happier!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place is the best deal I have had with a hotel in quite some time.  Room was more than expected.  Shower was great (for a big guy like me) and water pressure was very good.  Do yourself a favor, stay here and eat breakfast at Susannah's down the street. It will cost less than staying at a hotel with "free" breakfast.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r149256335-Motel_6_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>149256335</t>
+  </si>
+  <si>
+    <t>01/09/2013</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>I stayed here while visiting family and couldn't have been happier. Everything was clean and well maintained. The staff I spoke to were always helpful and friendly. I would defiantly stay here again..</t>
+  </si>
+  <si>
+    <t>December 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r149223370-Motel_6_Cleburne-Cleburne_Texas.html</t>
@@ -456,9 +597,6 @@
     <t>Really love the new concept Motel 6 has done. I don't usually stay with Motel 6 because of old, run down properties. If all of them would get with this new design. Would be great stays. We had a queen bed room, lil smaller room, but was great for a night. Had a frig, flat screen and a lil table with 2 chairs. Microwave is available to use by the vending machines. Bathroom was good loved the new sink :) elevators for the ones on 2nd and 3rd floors. Interior corridors. Pillows on bed, well not all that. For the value, we had a great stay. Housekeeping staff need to keep up with the lil things, or this accommodation will go down hill. Thank you Motel 6 for this new Hotel :) probably will come back if in this area again! They will leave the light on for ya!!More</t>
   </si>
   <si>
-    <t>Brian C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r137894081-Motel_6_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -477,9 +615,6 @@
     <t>July 2012</t>
   </si>
   <si>
-    <t>Ken321</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r137761880-Motel_6_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -495,7 +630,34 @@
     <t>I was looking for a inexpensive place to stay for the Goatneck bike ride in Cleburne and landed on Motel 6.  I got there and was very impressed and felt like I received an excellent deal.  This motel is one of the nicest economical motels that I have ever stayed in.  It is pretty new and the layout of the room was excellent.  I also liked the vinyl plank floor.  This is a much better solution than carpet.</t>
   </si>
   <si>
-    <t>Steve H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r136557588-Motel_6_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>136557588</t>
+  </si>
+  <si>
+    <t>08/08/2012</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The owners go beyond what's expected of a motel 6. The motel is brand new and the rooms are kinda art deco. Reminds me of south beach without the crazy rates. Step into your room and relax .Wake up calls ate right on time and fresh hot free coffe is waiting for you in the morning </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r131880459-Motel_6_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>131880459</t>
+  </si>
+  <si>
+    <t>06/13/2012</t>
+  </si>
+  <si>
+    <t>New Motel 6. Nice!</t>
+  </si>
+  <si>
+    <t>Stayed here overnight while visiting a friend. Beautiful motel - far above what I've become accustomed to expecting from this chain. Staff was very friendly when I checked in and when I had questions. Rooms are nice, although the bed could be softer, but that's just me. Pool is easy to access and looks very clean. This motel is located in what seems to be the hotel section of this city. Easy to find.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d2048781-r125087263-Motel_6_Cleburne-Cleburne_Texas.html</t>
@@ -1018,119 +1180,97 @@
       <c r="A2" t="n">
         <v>60587</v>
       </c>
-      <c r="B2" t="n">
-        <v>169224</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>60587</v>
       </c>
-      <c r="B3" t="n">
-        <v>21720</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
         <v>46</v>
       </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
@@ -1141,121 +1281,123 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>60587</v>
       </c>
-      <c r="B4" t="n">
-        <v>169225</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>58</v>
+      </c>
+      <c r="X4" t="s">
+        <v>59</v>
+      </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>60587</v>
       </c>
-      <c r="B5" t="n">
-        <v>113898</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
         <v>73</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1266,57 +1408,57 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>58</v>
+      </c>
+      <c r="X5" t="s">
+        <v>59</v>
+      </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>60587</v>
       </c>
-      <c r="B6" t="n">
-        <v>40297</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
         <v>80</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" t="s">
-        <v>85</v>
-      </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1330,66 +1472,62 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>60587</v>
       </c>
-      <c r="B7" t="n">
-        <v>39230</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1397,122 +1535,112 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>60587</v>
       </c>
-      <c r="B8" t="n">
-        <v>32265</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>102</v>
-      </c>
-      <c r="X8" t="s">
-        <v>103</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>60587</v>
       </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>105</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>101</v>
+      </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
@@ -1525,133 +1653,119 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>60587</v>
       </c>
-      <c r="B10" t="n">
-        <v>169226</v>
-      </c>
-      <c r="C10" t="s">
-        <v>111</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>3</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2</v>
-      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>3</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>60587</v>
       </c>
-      <c r="B11" t="n">
-        <v>169227</v>
-      </c>
-      <c r="C11" t="s">
-        <v>119</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>94</v>
+      </c>
       <c r="P11" t="n">
         <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1659,350 +1773,296 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>60587</v>
       </c>
-      <c r="B12" t="n">
-        <v>169228</v>
-      </c>
-      <c r="C12" t="s">
-        <v>126</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>71</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>60587</v>
       </c>
-      <c r="B13" t="n">
-        <v>408</v>
-      </c>
-      <c r="C13" t="s">
-        <v>133</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="J13" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="O13" t="s">
-        <v>87</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>4</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>4</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>60587</v>
       </c>
-      <c r="B14" t="n">
-        <v>169229</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R14" t="s"/>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>132</v>
+      </c>
+      <c r="X14" t="s">
+        <v>133</v>
+      </c>
       <c r="Y14" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>60587</v>
       </c>
-      <c r="B15" t="n">
-        <v>7535</v>
-      </c>
-      <c r="C15" t="s">
-        <v>146</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="J15" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="K15" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>152</v>
-      </c>
-      <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>60587</v>
       </c>
-      <c r="B16" t="n">
-        <v>169230</v>
-      </c>
-      <c r="C16" t="s">
-        <v>153</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="K16" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="O16" t="s">
-        <v>87</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2010,70 +2070,62 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>60587</v>
       </c>
-      <c r="B17" t="n">
-        <v>7500</v>
-      </c>
-      <c r="C17" t="s">
-        <v>159</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="J17" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="K17" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>4</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2081,7 +2133,785 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>60587</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>158</v>
+      </c>
+      <c r="O18" t="s">
+        <v>67</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>60587</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>60587</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>166</v>
+      </c>
+      <c r="J20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" t="s">
+        <v>169</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>170</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>60587</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" t="s">
+        <v>174</v>
+      </c>
+      <c r="L21" t="s">
+        <v>175</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>170</v>
+      </c>
+      <c r="O21" t="s">
+        <v>94</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>60587</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22" t="s">
+        <v>180</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>60587</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" t="s">
+        <v>185</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>186</v>
+      </c>
+      <c r="O23" t="s">
+        <v>94</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>60587</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>188</v>
+      </c>
+      <c r="J24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K24" t="s">
+        <v>190</v>
+      </c>
+      <c r="L24" t="s">
+        <v>191</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>60587</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>198</v>
+      </c>
+      <c r="O25" t="s">
+        <v>67</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>60587</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>200</v>
+      </c>
+      <c r="J26" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" t="s">
+        <v>202</v>
+      </c>
+      <c r="L26" t="s">
+        <v>203</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>198</v>
+      </c>
+      <c r="O26" t="s">
+        <v>94</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>60587</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>204</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>205</v>
+      </c>
+      <c r="J27" t="s">
+        <v>206</v>
+      </c>
+      <c r="K27" t="s">
+        <v>207</v>
+      </c>
+      <c r="L27" t="s">
+        <v>208</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>60587</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>210</v>
+      </c>
+      <c r="J28" t="s">
+        <v>211</v>
+      </c>
+      <c r="K28" t="s">
+        <v>212</v>
+      </c>
+      <c r="L28" t="s">
+        <v>213</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60587</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>214</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>215</v>
+      </c>
+      <c r="J29" t="s">
+        <v>216</v>
+      </c>
+      <c r="K29" t="s">
+        <v>217</v>
+      </c>
+      <c r="L29" t="s">
+        <v>218</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>219</v>
+      </c>
+      <c r="O29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
